--- a/Смирновка.xlsx
+++ b/Смирновка.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Git\pereriv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23760AE-7A49-4378-A988-80E1660BD78B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2D31B9-CAC7-40E0-AE3F-4E4F31802C35}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16416" windowHeight="7548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="202">
   <si>
     <t>ГР</t>
   </si>
@@ -217,9 +217,6 @@
   </si>
   <si>
     <t>ОПЕРАТОРЫ 2/2</t>
-  </si>
-  <si>
-    <t>06:00-18:00</t>
   </si>
   <si>
     <t>06:30-18:30</t>
@@ -1229,7 +1226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="467">
+  <cellXfs count="468">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2580,6 +2577,9 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2897,8 +2897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A344" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M355" sqref="M355"/>
+    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E203" sqref="E203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2926,7 +2926,7 @@
       <c r="D2" s="32"/>
       <c r="E2" s="33"/>
       <c r="F2" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="35"/>
       <c r="H2" s="36"/>
@@ -2940,7 +2940,7 @@
         <v>2022</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G3" s="37"/>
       <c r="H3" s="37"/>
@@ -2956,7 +2956,7 @@
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
       <c r="I4" s="42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3277,7 +3277,7 @@
       <c r="B21" s="66"/>
       <c r="C21" s="67"/>
       <c r="D21" s="66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E21" s="66"/>
       <c r="F21" s="68" t="s">
@@ -3286,7 +3286,7 @@
       <c r="G21" s="69"/>
       <c r="H21" s="70"/>
       <c r="I21" s="42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -3335,7 +3335,7 @@
         <v>15</v>
       </c>
       <c r="F24" s="79" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>7</v>
@@ -3455,7 +3455,7 @@
         <v>15</v>
       </c>
       <c r="F30" s="96" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>7</v>
@@ -3515,7 +3515,7 @@
         <v>15</v>
       </c>
       <c r="F33" s="79" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>7</v>
@@ -3586,12 +3586,12 @@
       </c>
       <c r="E37" s="119"/>
       <c r="F37" s="121" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G37" s="122"/>
       <c r="H37" s="123"/>
       <c r="I37" s="42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -3645,7 +3645,7 @@
         <v>14</v>
       </c>
       <c r="F40" s="132" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>7</v>
@@ -3702,10 +3702,10 @@
         <v>1</v>
       </c>
       <c r="E43" s="131" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F43" s="132" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G43" s="12" t="s">
         <v>7</v>
@@ -3762,10 +3762,10 @@
         <v>1</v>
       </c>
       <c r="E46" s="131" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F46" s="132" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G46" s="12" t="s">
         <v>7</v>
@@ -3880,7 +3880,7 @@
       <c r="D52" s="143"/>
       <c r="E52" s="144"/>
       <c r="F52" s="145" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G52" s="145"/>
       <c r="H52" s="143"/>
@@ -3896,7 +3896,7 @@
       <c r="D53" s="143"/>
       <c r="E53" s="144"/>
       <c r="F53" s="145" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G53" s="145"/>
       <c r="H53" s="143"/>
@@ -3918,7 +3918,7 @@
       <c r="H54" s="141"/>
       <c r="I54" s="142">
         <f t="shared" ref="I54" ca="1" si="2">COUNTIFS(I78:I426,"О",OFFSET(I78:I426,-1,0),"С")+COUNTIFS(I78:I426,"А",OFFSET(I78:I426,-1,0),"С")+COUNTIFS(I78:I426,"НН",OFFSET(I78:I426,-1,0),"С")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -3934,7 +3934,7 @@
       <c r="H55" s="138"/>
       <c r="I55" s="147">
         <f t="shared" ref="I55" si="3">SUM(I62,I98,I182,I379)</f>
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -3950,7 +3950,7 @@
       <c r="H56" s="147"/>
       <c r="I56" s="147">
         <f t="shared" ref="I56" si="4">SUM(I66:I95,I102:I179,I186:I377,I382:I426)</f>
-        <v>518.94999999999993</v>
+        <v>529.94999999999993</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -3969,7 +3969,7 @@
       <c r="H57" s="138"/>
       <c r="I57" s="147">
         <f t="shared" ref="I57" si="5">SUM(I63,I99,I183,I378)</f>
-        <v>51.99545454545455</v>
+        <v>52.99545454545455</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -3985,7 +3985,7 @@
       <c r="H58" s="138"/>
       <c r="I58" s="147">
         <f t="shared" ref="I58" si="6">I57-I63-I99</f>
-        <v>23.99545454545455</v>
+        <v>24.99545454545455</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -4080,7 +4080,7 @@
       <c r="G64" s="157"/>
       <c r="H64" s="157"/>
       <c r="I64" s="42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4119,7 +4119,7 @@
         <v>12</v>
       </c>
       <c r="B67" s="165" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C67" s="105">
         <v>69574</v>
@@ -4131,7 +4131,7 @@
         <v>37</v>
       </c>
       <c r="F67" s="167" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G67" s="12" t="s">
         <v>7</v>
@@ -4183,7 +4183,7 @@
         <v>12</v>
       </c>
       <c r="B70" s="165" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C70" s="78">
         <v>68405</v>
@@ -4195,7 +4195,7 @@
         <v>37</v>
       </c>
       <c r="F70" s="167" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G70" s="12" t="s">
         <v>7</v>
@@ -4243,10 +4243,10 @@
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="176"/>
       <c r="B73" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C73" s="185" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D73" s="94">
         <v>1</v>
@@ -4255,7 +4255,7 @@
         <v>37</v>
       </c>
       <c r="F73" s="167" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G73" s="12" t="s">
         <v>7</v>
@@ -4362,10 +4362,10 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="104" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B79" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C79" s="105">
         <v>68664</v>
@@ -4377,7 +4377,7 @@
         <v>33</v>
       </c>
       <c r="F79" s="132" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G79" s="12" t="s">
         <v>7</v>
@@ -4426,7 +4426,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="93" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B82" s="94" t="s">
         <v>40</v>
@@ -4441,7 +4441,7 @@
         <v>33</v>
       </c>
       <c r="F82" s="195" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G82" s="12" t="s">
         <v>7</v>
@@ -4488,10 +4488,10 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="197" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B85" s="198" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C85" s="202">
         <v>68017</v>
@@ -4548,7 +4548,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="197" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B88" s="198" t="s">
         <v>40</v>
@@ -4563,7 +4563,7 @@
         <v>37</v>
       </c>
       <c r="F88" s="205" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G88" s="12" t="s">
         <v>7</v>
@@ -4610,10 +4610,10 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="222" t="s">
+        <v>196</v>
+      </c>
+      <c r="B91" s="223" t="s">
         <v>197</v>
-      </c>
-      <c r="B91" s="223" t="s">
-        <v>198</v>
       </c>
       <c r="C91" s="224"/>
       <c r="D91" s="225">
@@ -4623,7 +4623,7 @@
         <v>33</v>
       </c>
       <c r="F91" s="227" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G91" s="12" t="s">
         <v>7</v>
@@ -4670,7 +4670,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="222" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B94" s="223" t="s">
         <v>40</v>
@@ -4683,7 +4683,7 @@
         <v>33</v>
       </c>
       <c r="F94" s="227" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G94" s="12" t="s">
         <v>7</v>
@@ -4786,7 +4786,7 @@
       <c r="G100" s="157"/>
       <c r="H100" s="157"/>
       <c r="I100" s="42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -4822,10 +4822,10 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="256" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B103" s="257" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C103" s="194">
         <v>69698</v>
@@ -4834,10 +4834,10 @@
         <v>1</v>
       </c>
       <c r="E103" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="F103" s="132" t="s">
         <v>127</v>
-      </c>
-      <c r="F103" s="132" t="s">
-        <v>128</v>
       </c>
       <c r="G103" s="12" t="s">
         <v>7</v>
@@ -4886,10 +4886,10 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="197" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B106" s="203" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C106" s="202">
         <v>68074</v>
@@ -4898,10 +4898,10 @@
         <v>1</v>
       </c>
       <c r="E106" s="200" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F106" s="205" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G106" s="12" t="s">
         <v>7</v>
@@ -4950,10 +4950,10 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="256" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B109" s="130" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C109" s="78">
         <v>68076</v>
@@ -5014,10 +5014,10 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="256" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B112" s="130" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C112" s="78">
         <v>68113</v>
@@ -5078,7 +5078,7 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="197" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B115" s="203" t="s">
         <v>40</v>
@@ -5142,10 +5142,10 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="256" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B118" s="257" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C118" s="174">
         <v>69583</v>
@@ -5157,7 +5157,7 @@
         <v>46</v>
       </c>
       <c r="F118" s="132" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G118" s="12" t="s">
         <v>7</v>
@@ -5206,10 +5206,10 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="256" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B121" s="257" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C121" s="78">
         <v>69514</v>
@@ -5221,7 +5221,7 @@
         <v>50</v>
       </c>
       <c r="F121" s="132" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G121" s="12" t="s">
         <v>7</v>
@@ -5270,10 +5270,10 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="256" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B124" s="130" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C124" s="78">
         <v>68080</v>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="197" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B127" s="203" t="s">
         <v>40</v>
@@ -5398,10 +5398,10 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="256" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B130" s="130" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C130" s="78">
         <v>68088</v>
@@ -5462,10 +5462,10 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="256" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B133" s="257" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C133" s="105">
         <v>68672</v>
@@ -5477,7 +5477,7 @@
         <v>6</v>
       </c>
       <c r="F133" s="132" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G133" s="12" t="s">
         <v>7</v>
@@ -5526,10 +5526,10 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="256" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B136" s="130" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C136" s="78">
         <v>68070</v>
@@ -5590,10 +5590,10 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="256" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B139" s="79" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C139" s="191">
         <v>68418</v>
@@ -5605,7 +5605,7 @@
         <v>6</v>
       </c>
       <c r="F139" s="132" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G139" s="12" t="s">
         <v>7</v>
@@ -5654,10 +5654,10 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="256" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B142" s="257" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C142" s="294">
         <v>68011</v>
@@ -5669,7 +5669,7 @@
         <v>6</v>
       </c>
       <c r="F142" s="132" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G142" s="12" t="s">
         <v>7</v>
@@ -5718,10 +5718,10 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="256" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B145" s="130" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C145" s="78">
         <v>68034</v>
@@ -5782,10 +5782,10 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="298" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B148" s="299" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C148" s="285">
         <v>69695</v>
@@ -5797,7 +5797,7 @@
         <v>6</v>
       </c>
       <c r="F148" s="287" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G148" s="12" t="s">
         <v>7</v>
@@ -5846,7 +5846,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="256" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B151" s="94" t="s">
         <v>40</v>
@@ -5861,7 +5861,7 @@
         <v>6</v>
       </c>
       <c r="F151" s="132" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G151" s="12" t="s">
         <v>7</v>
@@ -5910,20 +5910,20 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="256" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B154" s="94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C154" s="78">
         <v>68459</v>
       </c>
       <c r="D154" s="104"/>
       <c r="E154" s="95" t="s">
+        <v>134</v>
+      </c>
+      <c r="F154" s="303" t="s">
         <v>135</v>
-      </c>
-      <c r="F154" s="303" t="s">
-        <v>136</v>
       </c>
       <c r="G154" s="12" t="s">
         <v>7</v>
@@ -5970,10 +5970,10 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="104" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B157" s="130" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C157" s="105">
         <v>69591</v>
@@ -5982,10 +5982,10 @@
         <v>1</v>
       </c>
       <c r="E157" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="F157" s="132" t="s">
         <v>137</v>
-      </c>
-      <c r="F157" s="132" t="s">
-        <v>138</v>
       </c>
       <c r="G157" s="12" t="s">
         <v>7</v>
@@ -6034,10 +6034,10 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="104" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B160" s="94" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C160" s="191">
         <v>69696</v>
@@ -6049,7 +6049,7 @@
         <v>56</v>
       </c>
       <c r="F160" s="132" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G160" s="12" t="s">
         <v>7</v>
@@ -6098,7 +6098,7 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="104" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B163" s="94" t="s">
         <v>40</v>
@@ -6113,7 +6113,7 @@
         <v>56</v>
       </c>
       <c r="F163" s="132" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G163" s="12" t="s">
         <v>7</v>
@@ -6162,7 +6162,7 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="283" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B166" s="284" t="s">
         <v>40</v>
@@ -6177,7 +6177,7 @@
         <v>56</v>
       </c>
       <c r="F166" s="287" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G166" s="12" t="s">
         <v>7</v>
@@ -6226,10 +6226,10 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="197" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B169" s="203" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C169" s="202">
         <v>68180</v>
@@ -6290,10 +6290,10 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B172" s="257" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C172" s="78">
         <v>69639</v>
@@ -6305,7 +6305,7 @@
         <v>56</v>
       </c>
       <c r="F172" s="132" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G172" s="12" t="s">
         <v>7</v>
@@ -6354,10 +6354,10 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="104" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B175" s="94" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C175" s="191">
         <v>68333</v>
@@ -6369,7 +6369,7 @@
         <v>56</v>
       </c>
       <c r="F175" s="132" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G175" s="12" t="s">
         <v>7</v>
@@ -6418,10 +6418,10 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="104" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B178" s="94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C178" s="191">
         <v>69424</v>
@@ -6433,7 +6433,7 @@
         <v>58</v>
       </c>
       <c r="F178" s="132" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G178" s="12" t="s">
         <v>7</v>
@@ -6507,7 +6507,7 @@
       <c r="H182" s="152"/>
       <c r="I182" s="152">
         <f t="shared" ref="I182" si="16">COUNTIF(I186:I377,"&gt;0")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -6523,7 +6523,7 @@
       <c r="H183" s="152"/>
       <c r="I183" s="155">
         <f t="shared" ref="I183" si="17">SUM(I187,I190,I193,I196,I202,I205,I277,I283,I208,I211,I214,I217,I220,I223,I226,I229,I232,I235,I238,I241,I244,I247,I250,I253,I256,I259,I262,I265,I268,I271,I274,I280,I286,I289,I292,I295,I298,I301,I304,I307,I310,I313,I316,I319,I322,I325,I328,I331,I334,I337,I340,I343,I346,I349,I352,I355,I358,I361,I364,I367,I370,I373,I376,I199)/11</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -6538,7 +6538,7 @@
       <c r="G184" s="157"/>
       <c r="H184" s="157"/>
       <c r="I184" s="42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6574,10 +6574,10 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B187" s="94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C187" s="105">
         <v>69688</v>
@@ -6586,10 +6586,10 @@
         <v>1</v>
       </c>
       <c r="E187" s="95" t="s">
+        <v>144</v>
+      </c>
+      <c r="F187" s="167" t="s">
         <v>145</v>
-      </c>
-      <c r="F187" s="167" t="s">
-        <v>146</v>
       </c>
       <c r="G187" s="12" t="s">
         <v>7</v>
@@ -6636,10 +6636,10 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B190" s="257" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C190" s="105">
         <v>69684</v>
@@ -6648,10 +6648,10 @@
         <v>1</v>
       </c>
       <c r="E190" s="95" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F190" s="167" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G190" s="12" t="s">
         <v>7</v>
@@ -6698,7 +6698,7 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B193" s="94" t="s">
         <v>40</v>
@@ -6710,10 +6710,10 @@
         <v>1</v>
       </c>
       <c r="E193" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="F193" s="167" t="s">
         <v>65</v>
-      </c>
-      <c r="F193" s="167" t="s">
-        <v>66</v>
       </c>
       <c r="G193" s="12" t="s">
         <v>7</v>
@@ -6760,7 +6760,7 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B196" s="94" t="s">
         <v>40</v>
@@ -6775,7 +6775,7 @@
         <v>15</v>
       </c>
       <c r="F196" s="167" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G196" s="12" t="s">
         <v>7</v>
@@ -6820,10 +6820,10 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B199" s="130" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C199" s="105">
         <v>69417</v>
@@ -6831,11 +6831,11 @@
       <c r="D199" s="94">
         <v>1</v>
       </c>
-      <c r="E199" s="95" t="s">
-        <v>15</v>
+      <c r="E199" s="467" t="s">
+        <v>66</v>
       </c>
       <c r="F199" s="167" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G199" s="12" t="s">
         <v>7</v>
@@ -6882,10 +6882,10 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B202" s="94" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C202" s="78">
         <v>69510</v>
@@ -6893,11 +6893,11 @@
       <c r="D202" s="94">
         <v>1</v>
       </c>
-      <c r="E202" s="95" t="s">
-        <v>64</v>
+      <c r="E202" s="467" t="s">
+        <v>66</v>
       </c>
       <c r="F202" s="332" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G202" s="12" t="s">
         <v>7</v>
@@ -6944,10 +6944,10 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="338" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B205" s="198" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C205" s="202">
         <v>68184</v>
@@ -6956,10 +6956,10 @@
         <v>1</v>
       </c>
       <c r="E205" s="200" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F205" s="339" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G205" s="12" t="s">
         <v>7</v>
@@ -7006,10 +7006,10 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="338" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B208" s="198" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C208" s="202">
         <v>68018</v>
@@ -7021,7 +7021,7 @@
         <v>15</v>
       </c>
       <c r="F208" s="339" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G208" s="12" t="s">
         <v>7</v>
@@ -7068,10 +7068,10 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B211" s="130" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C211" s="78">
         <v>69513</v>
@@ -7083,7 +7083,7 @@
         <v>15</v>
       </c>
       <c r="F211" s="167" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G211" s="12" t="s">
         <v>7</v>
@@ -7137,7 +7137,7 @@
         <v>15</v>
       </c>
       <c r="F214" s="352" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G214" s="12" t="s">
         <v>7</v>
@@ -7184,10 +7184,10 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B217" s="130" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C217" s="187">
         <v>69416</v>
@@ -7199,7 +7199,7 @@
         <v>15</v>
       </c>
       <c r="F217" s="167" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G217" s="12" t="s">
         <v>7</v>
@@ -7246,10 +7246,10 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B220" s="94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C220" s="364">
         <v>69507</v>
@@ -7261,7 +7261,7 @@
         <v>15</v>
       </c>
       <c r="F220" s="332" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G220" s="12" t="s">
         <v>7</v>
@@ -7306,10 +7306,10 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="338" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B223" s="203" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C223" s="202">
         <v>68412</v>
@@ -7321,7 +7321,7 @@
         <v>15</v>
       </c>
       <c r="F223" s="339" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G223" s="12" t="s">
         <v>7</v>
@@ -7366,7 +7366,7 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B226" s="94" t="s">
         <v>40</v>
@@ -7381,7 +7381,7 @@
         <v>14</v>
       </c>
       <c r="F226" s="132" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G226" s="12" t="s">
         <v>7</v>
@@ -7426,10 +7426,10 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="464" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B229" s="284" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C229" s="285">
         <v>68522</v>
@@ -7441,7 +7441,7 @@
         <v>14</v>
       </c>
       <c r="F229" s="372" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G229" s="12" t="s">
         <v>7</v>
@@ -7488,10 +7488,10 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="338" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B232" s="203" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C232" s="202">
         <v>68084</v>
@@ -7503,7 +7503,7 @@
         <v>14</v>
       </c>
       <c r="F232" s="339" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G232" s="12" t="s">
         <v>7</v>
@@ -7550,10 +7550,10 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B235" s="257" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C235" s="78">
         <v>68123</v>
@@ -7565,7 +7565,7 @@
         <v>14</v>
       </c>
       <c r="F235" s="167" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G235" s="12" t="s">
         <v>7</v>
@@ -7612,10 +7612,10 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="338" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B238" s="198" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C238" s="375">
         <v>69515</v>
@@ -7627,7 +7627,7 @@
         <v>14</v>
       </c>
       <c r="F238" s="376" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G238" s="12" t="s">
         <v>7</v>
@@ -7680,10 +7680,10 @@
       <c r="C241" s="384"/>
       <c r="D241" s="383"/>
       <c r="E241" s="226" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F241" s="234" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G241" s="12" t="s">
         <v>7</v>
@@ -7728,7 +7728,7 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B244" s="94" t="s">
         <v>40</v>
@@ -7741,7 +7741,7 @@
         <v>14</v>
       </c>
       <c r="F244" s="167" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G244" s="12" t="s">
         <v>7</v>
@@ -7786,10 +7786,10 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B247" s="94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C247" s="78">
         <v>68668</v>
@@ -7801,7 +7801,7 @@
         <v>15</v>
       </c>
       <c r="F247" s="167" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G247" s="12" t="s">
         <v>7</v>
@@ -7848,10 +7848,10 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B250" s="94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C250" s="78">
         <v>69508</v>
@@ -7863,17 +7863,17 @@
         <v>15</v>
       </c>
       <c r="F250" s="167" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G250" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H250" s="17">
         <f>COUNTIF(I250:P250,"&gt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="I250" s="206" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="I250" s="206">
+        <v>11</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7910,10 +7910,10 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B253" s="130" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C253" s="78">
         <v>69555</v>
@@ -7925,7 +7925,7 @@
         <v>14</v>
       </c>
       <c r="F253" s="167" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G253" s="12" t="s">
         <v>7</v>
@@ -7974,10 +7974,10 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B256" s="130" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C256" s="105">
         <v>69351</v>
@@ -7989,7 +7989,7 @@
         <v>14</v>
       </c>
       <c r="F256" s="167" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G256" s="12" t="s">
         <v>7</v>
@@ -8036,10 +8036,10 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" s="338" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B259" s="198" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C259" s="202">
         <v>68020</v>
@@ -8051,7 +8051,7 @@
         <v>14</v>
       </c>
       <c r="F259" s="339" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G259" s="12" t="s">
         <v>7</v>
@@ -8098,7 +8098,7 @@
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B262" s="94" t="s">
         <v>40</v>
@@ -8113,7 +8113,7 @@
         <v>14</v>
       </c>
       <c r="F262" s="167" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G262" s="12" t="s">
         <v>7</v>
@@ -8162,10 +8162,10 @@
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B265" s="130" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C265" s="78">
         <v>69553</v>
@@ -8177,7 +8177,7 @@
         <v>14</v>
       </c>
       <c r="F265" s="167" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G265" s="12" t="s">
         <v>7</v>
@@ -8224,10 +8224,10 @@
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B268" s="130" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C268" s="78">
         <v>68518</v>
@@ -8239,7 +8239,7 @@
         <v>15</v>
       </c>
       <c r="F268" s="167" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G268" s="12" t="s">
         <v>7</v>
@@ -8284,7 +8284,7 @@
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="419" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B271" s="79" t="s">
         <v>40</v>
@@ -8297,7 +8297,7 @@
         <v>14</v>
       </c>
       <c r="F271" s="167" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G271" s="12" t="s">
         <v>7</v>
@@ -8344,10 +8344,10 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B274" s="257" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C274" s="94">
         <v>68671</v>
@@ -8359,7 +8359,7 @@
         <v>14</v>
       </c>
       <c r="F274" s="167" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G274" s="12" t="s">
         <v>7</v>
@@ -8415,7 +8415,7 @@
         <v>15</v>
       </c>
       <c r="F277" s="352" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G277" s="12" t="s">
         <v>7</v>
@@ -8460,7 +8460,7 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B280" s="94" t="s">
         <v>40</v>
@@ -8475,7 +8475,7 @@
         <v>14</v>
       </c>
       <c r="F280" s="167" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G280" s="12" t="s">
         <v>7</v>
@@ -8529,7 +8529,7 @@
         <v>15</v>
       </c>
       <c r="F283" s="352" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G283" s="12" t="s">
         <v>7</v>
@@ -8574,10 +8574,10 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B286" s="94" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C286" s="191">
         <v>69640</v>
@@ -8589,7 +8589,7 @@
         <v>15</v>
       </c>
       <c r="F286" s="167" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G286" s="12" t="s">
         <v>7</v>
@@ -8634,10 +8634,10 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B289" s="130" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C289" s="78">
         <v>69537</v>
@@ -8646,10 +8646,10 @@
         <v>1</v>
       </c>
       <c r="E289" s="131" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F289" s="395" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G289" s="12" t="s">
         <v>7</v>
@@ -8696,10 +8696,10 @@
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B292" s="130" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C292" s="78">
         <v>68409</v>
@@ -8708,10 +8708,10 @@
         <v>1</v>
       </c>
       <c r="E292" s="131" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F292" s="395" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G292" s="12" t="s">
         <v>7</v>
@@ -8758,10 +8758,10 @@
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="165" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B295" s="130" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C295" s="78">
         <v>68111</v>
@@ -8770,10 +8770,10 @@
         <v>1</v>
       </c>
       <c r="E295" s="131" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F295" s="395" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G295" s="12" t="s">
         <v>7</v>
@@ -8820,10 +8820,10 @@
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B298" s="257" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C298" s="194">
         <v>69701</v>
@@ -8835,7 +8835,7 @@
         <v>15</v>
       </c>
       <c r="F298" s="395" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G298" s="12" t="s">
         <v>7</v>
@@ -8890,10 +8890,10 @@
       <c r="C301" s="397"/>
       <c r="D301" s="383"/>
       <c r="E301" s="226" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F301" s="234" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G301" s="12" t="s">
         <v>7</v>
@@ -8938,10 +8938,10 @@
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B304" s="130" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C304" s="105">
         <v>69551</v>
@@ -8950,10 +8950,10 @@
         <v>1</v>
       </c>
       <c r="E304" s="131" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F304" s="395" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G304" s="12" t="s">
         <v>7</v>
@@ -9006,10 +9006,10 @@
       <c r="C307" s="397"/>
       <c r="D307" s="383"/>
       <c r="E307" s="226" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F307" s="234" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G307" s="12" t="s">
         <v>7</v>
@@ -9054,10 +9054,10 @@
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B310" s="130" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C310" s="194">
         <v>69700</v>
@@ -9066,10 +9066,10 @@
         <v>1</v>
       </c>
       <c r="E310" s="95" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F310" s="399" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G310" s="12" t="s">
         <v>7</v>
@@ -9114,10 +9114,10 @@
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B313" s="94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C313" s="78">
         <v>69354</v>
@@ -9126,10 +9126,10 @@
         <v>1</v>
       </c>
       <c r="E313" s="95" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F313" s="395" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G313" s="12" t="s">
         <v>7</v>
@@ -9182,10 +9182,10 @@
       <c r="C316" s="397"/>
       <c r="D316" s="383"/>
       <c r="E316" s="226" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F316" s="234" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G316" s="12" t="s">
         <v>7</v>
@@ -9230,7 +9230,7 @@
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B319" s="94" t="s">
         <v>40</v>
@@ -9242,10 +9242,10 @@
         <v>1</v>
       </c>
       <c r="E319" s="187" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F319" s="395" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G319" s="12" t="s">
         <v>7</v>
@@ -9292,7 +9292,7 @@
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B322" s="94" t="s">
         <v>40</v>
@@ -9304,10 +9304,10 @@
         <v>1</v>
       </c>
       <c r="E322" s="95" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F322" s="395" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G322" s="12" t="s">
         <v>7</v>
@@ -9356,10 +9356,10 @@
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" s="338" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B325" s="198" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C325" s="202">
         <v>68158</v>
@@ -9368,7 +9368,7 @@
         <v>1</v>
       </c>
       <c r="E325" s="200" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F325" s="401" t="s">
         <v>36</v>
@@ -9418,10 +9418,10 @@
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B328" s="94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C328" s="194">
         <v>69422</v>
@@ -9430,10 +9430,10 @@
         <v>1</v>
       </c>
       <c r="E328" s="95" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F328" s="395" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G328" s="12" t="s">
         <v>7</v>
@@ -9478,7 +9478,7 @@
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" s="338" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B331" s="198" t="s">
         <v>40</v>
@@ -9490,10 +9490,10 @@
         <v>1</v>
       </c>
       <c r="E331" s="200" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F331" s="401" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G331" s="12" t="s">
         <v>7</v>
@@ -9540,10 +9540,10 @@
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B334" s="130" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C334" s="194">
         <v>69688</v>
@@ -9552,10 +9552,10 @@
         <v>1</v>
       </c>
       <c r="E334" s="131" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F334" s="395" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G334" s="12" t="s">
         <v>7</v>
@@ -9602,10 +9602,10 @@
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B337" s="257" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C337" s="105">
         <v>69425</v>
@@ -9614,10 +9614,10 @@
         <v>1</v>
       </c>
       <c r="E337" s="131" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F337" s="167" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G337" s="12" t="s">
         <v>7</v>
@@ -9668,10 +9668,10 @@
       <c r="C340" s="409"/>
       <c r="D340" s="408"/>
       <c r="E340" s="410" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F340" s="411" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G340" s="12" t="s">
         <v>7</v>
@@ -9716,10 +9716,10 @@
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B343" s="130" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C343" s="78">
         <v>68593</v>
@@ -9728,10 +9728,10 @@
         <v>1</v>
       </c>
       <c r="E343" s="95" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F343" s="167" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G343" s="12" t="s">
         <v>7</v>
@@ -9776,7 +9776,7 @@
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B346" s="94" t="s">
         <v>40</v>
@@ -9788,10 +9788,10 @@
         <v>1</v>
       </c>
       <c r="E346" s="95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F346" s="167" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G346" s="12" t="s">
         <v>7</v>
@@ -9838,10 +9838,10 @@
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B349" s="79" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C349" s="191">
         <v>68425</v>
@@ -9850,10 +9850,10 @@
         <v>1</v>
       </c>
       <c r="E349" s="79" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F349" s="167" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G349" s="12" t="s">
         <v>7</v>
@@ -9900,10 +9900,10 @@
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B352" s="130" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C352" s="191">
         <v>68422</v>
@@ -9912,10 +9912,10 @@
         <v>1</v>
       </c>
       <c r="E352" s="79" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F352" s="167" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G352" s="12" t="s">
         <v>7</v>
@@ -9966,10 +9966,10 @@
       <c r="C355" s="427"/>
       <c r="D355" s="431"/>
       <c r="E355" s="426" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F355" s="411" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G355" s="12" t="s">
         <v>7</v>
@@ -10014,10 +10014,10 @@
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B358" s="257" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C358" s="191">
         <v>68177</v>
@@ -10026,7 +10026,7 @@
         <v>1</v>
       </c>
       <c r="E358" s="79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F358" s="167" t="s">
         <v>34</v>
@@ -10076,10 +10076,10 @@
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B361" s="130" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C361" s="78">
         <v>69596</v>
@@ -10088,10 +10088,10 @@
         <v>1</v>
       </c>
       <c r="E361" s="79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F361" s="439" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G361" s="12" t="s">
         <v>7</v>
@@ -10138,10 +10138,10 @@
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B364" s="94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C364" s="105">
         <v>69572</v>
@@ -10150,10 +10150,10 @@
         <v>1</v>
       </c>
       <c r="E364" s="95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F364" s="167" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G364" s="12" t="s">
         <v>7</v>
@@ -10200,10 +10200,10 @@
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B367" s="257" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C367" s="94">
         <v>69692</v>
@@ -10212,10 +10212,10 @@
         <v>1</v>
       </c>
       <c r="E367" s="79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F367" s="167" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G367" s="12" t="s">
         <v>7</v>
@@ -10268,10 +10268,10 @@
       <c r="C370" s="427"/>
       <c r="D370" s="431"/>
       <c r="E370" s="426" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F370" s="411" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G370" s="12" t="s">
         <v>7</v>
@@ -10316,10 +10316,10 @@
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B373" s="130" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C373" s="78">
         <v>68350</v>
@@ -10328,10 +10328,10 @@
         <v>1</v>
       </c>
       <c r="E373" s="131" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F373" s="167" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G373" s="12" t="s">
         <v>7</v>
@@ -10376,7 +10376,7 @@
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376" s="165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B376" s="446" t="s">
         <v>40</v>
@@ -10388,10 +10388,10 @@
         <v>1</v>
       </c>
       <c r="E376" s="446" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F376" s="195" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G376" s="12" t="s">
         <v>7</v>
@@ -10430,7 +10430,7 @@
       </c>
       <c r="E378" s="450"/>
       <c r="F378" s="154" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G378" s="450"/>
       <c r="H378" s="451"/>
@@ -10446,7 +10446,7 @@
       <c r="D379" s="453"/>
       <c r="E379" s="453"/>
       <c r="F379" s="154" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G379" s="152"/>
       <c r="H379" s="152"/>
@@ -10462,12 +10462,12 @@
       <c r="D380" s="157"/>
       <c r="E380" s="157"/>
       <c r="F380" s="158" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G380" s="122"/>
       <c r="H380" s="119"/>
       <c r="I380" s="456" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.3">
@@ -10503,10 +10503,10 @@
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383" s="197" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B383" s="198" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C383" s="202">
         <v>68195</v>
@@ -10515,10 +10515,10 @@
         <v>0.8</v>
       </c>
       <c r="E383" s="200" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F383" s="201" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G383" s="12" t="s">
         <v>7</v>
@@ -10567,7 +10567,7 @@
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386" s="197" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B386" s="198" t="s">
         <v>40</v>
@@ -10579,10 +10579,10 @@
         <v>0.9</v>
       </c>
       <c r="E386" s="200" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F386" s="201" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G386" s="12" t="s">
         <v>7</v>
@@ -10631,10 +10631,10 @@
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389" s="93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B389" s="257" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C389" s="78">
         <v>68433</v>
@@ -10643,7 +10643,7 @@
         <v>0.8</v>
       </c>
       <c r="E389" s="95" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F389" s="132" t="s">
         <v>59</v>
@@ -10695,10 +10695,10 @@
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392" s="93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B392" s="94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C392" s="78">
         <v>69575</v>
@@ -10707,10 +10707,10 @@
         <v>0.8</v>
       </c>
       <c r="E392" s="95" t="s">
+        <v>182</v>
+      </c>
+      <c r="F392" s="195" t="s">
         <v>183</v>
-      </c>
-      <c r="F392" s="195" t="s">
-        <v>184</v>
       </c>
       <c r="G392" s="12" t="s">
         <v>7</v>
@@ -10759,10 +10759,10 @@
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395" s="93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B395" s="94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C395" s="78">
         <v>68128</v>
@@ -10771,10 +10771,10 @@
         <v>0.8</v>
       </c>
       <c r="E395" s="95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F395" s="132" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G395" s="12" t="s">
         <v>7</v>
@@ -10821,10 +10821,10 @@
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398" s="93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B398" s="130" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C398" s="105">
         <v>69691</v>
@@ -10833,10 +10833,10 @@
         <v>0.5</v>
       </c>
       <c r="E398" s="95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F398" s="132" t="s">
         <v>185</v>
-      </c>
-      <c r="F398" s="132" t="s">
-        <v>186</v>
       </c>
       <c r="G398" s="12" t="s">
         <v>7</v>
@@ -10883,10 +10883,10 @@
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401" s="93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B401" s="130" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C401" s="78">
         <v>68039</v>
@@ -10895,10 +10895,10 @@
         <v>0.5</v>
       </c>
       <c r="E401" s="95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F401" s="132" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G401" s="12" t="s">
         <v>7</v>
@@ -10945,10 +10945,10 @@
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404" s="93" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B404" s="94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C404" s="78">
         <v>68116</v>
@@ -10957,10 +10957,10 @@
         <v>0.75</v>
       </c>
       <c r="E404" s="95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F404" s="132" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G404" s="12" t="s">
         <v>7</v>
@@ -11005,7 +11005,7 @@
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407" s="93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B407" s="130" t="s">
         <v>40</v>
@@ -11020,7 +11020,7 @@
         <v>46</v>
       </c>
       <c r="F407" s="195" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G407" s="12" t="s">
         <v>7</v>
@@ -11067,10 +11067,10 @@
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410" s="197" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B410" s="198" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C410" s="202">
         <v>69571</v>
@@ -11079,10 +11079,10 @@
         <v>0.7</v>
       </c>
       <c r="E410" s="204" t="s">
+        <v>186</v>
+      </c>
+      <c r="F410" s="201" t="s">
         <v>187</v>
-      </c>
-      <c r="F410" s="201" t="s">
-        <v>188</v>
       </c>
       <c r="G410" s="12" t="s">
         <v>7</v>
@@ -11131,10 +11131,10 @@
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413" s="197" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B413" s="198" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C413" s="202">
         <v>68133</v>
@@ -11143,10 +11143,10 @@
         <v>0.8</v>
       </c>
       <c r="E413" s="204" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F413" s="201" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G413" s="12" t="s">
         <v>7</v>
@@ -11195,10 +11195,10 @@
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416" s="197" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B416" s="198" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C416" s="202">
         <v>68628</v>
@@ -11207,10 +11207,10 @@
         <v>0.5</v>
       </c>
       <c r="E416" s="204" t="s">
+        <v>189</v>
+      </c>
+      <c r="F416" s="201" t="s">
         <v>190</v>
-      </c>
-      <c r="F416" s="201" t="s">
-        <v>191</v>
       </c>
       <c r="G416" s="12" t="s">
         <v>7</v>
@@ -11259,10 +11259,10 @@
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419" s="93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B419" s="130" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C419" s="78">
         <v>68124</v>
@@ -11274,7 +11274,7 @@
         <v>58</v>
       </c>
       <c r="F419" s="132" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G419" s="12" t="s">
         <v>7</v>
@@ -11321,7 +11321,7 @@
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422" s="93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B422" s="94" t="s">
         <v>40</v>
@@ -11333,10 +11333,10 @@
         <v>0.3</v>
       </c>
       <c r="E422" s="95" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F422" s="167" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G422" s="12" t="s">
         <v>7</v>
@@ -11381,20 +11381,20 @@
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A425" s="93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B425" s="130" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C425" s="78">
         <v>68046</v>
       </c>
       <c r="D425" s="94"/>
       <c r="E425" s="95" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F425" s="132" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G425" s="12" t="s">
         <v>7</v>

--- a/Смирновка.xlsx
+++ b/Смирновка.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victoria.skryabina\Desktop\Перерывы АКТУАЛЬНЫЕ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Git\pereriv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C89891-9C59-40D2-AFFC-A256419D6333}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E57E41-79B2-4E40-81A2-2E18B1A67602}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7545" xr2:uid="{AD563169-E1C9-438F-A343-C5E32F33954C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16416" windowHeight="7548" xr2:uid="{AD563169-E1C9-438F-A343-C5E32F33954C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2925,24 +2925,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6BCFE8-D5F5-4ABE-921F-9F49D57CEDCC}">
   <dimension ref="A1:L340"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H348" sqref="H347:H348"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="J295" sqref="J295"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="341" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="41.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="341" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
@@ -2951,7 +2951,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -2962,7 +2962,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -2977,7 +2977,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -2990,7 +2990,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="16" t="s">
         <v>0</v>
@@ -3011,7 +3011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -3029,7 +3029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19">
@@ -3053,7 +3053,7 @@
       </c>
       <c r="I7" s="394"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="I8" s="38"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="49"/>
       <c r="B9" s="39"/>
       <c r="C9" s="40"/>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="I9" s="25"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
       <c r="B10" s="52"/>
       <c r="C10" s="45">
@@ -3109,7 +3109,7 @@
       </c>
       <c r="I10" s="381"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="53"/>
       <c r="B11" s="32"/>
       <c r="C11" s="46"/>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="I11" s="38"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="52"/>
       <c r="B12" s="52"/>
       <c r="C12" s="45"/>
@@ -3143,7 +3143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="52"/>
       <c r="B13" s="52"/>
       <c r="C13" s="45"/>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="I13" s="31"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="52"/>
       <c r="B14" s="52"/>
       <c r="C14" s="45"/>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="39"/>
       <c r="B15" s="39"/>
       <c r="C15" s="40"/>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="I15" s="25"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="45">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="I16" s="363"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
       <c r="C17" s="46"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="I17" s="38"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="49"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -3253,7 +3253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="26"/>
       <c r="B19" s="52"/>
       <c r="C19" s="45">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="I19" s="396"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="53"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="I20" s="31"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="49"/>
       <c r="B21" s="39"/>
       <c r="C21" s="40"/>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="I21" s="25"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="26"/>
       <c r="B22" s="52"/>
       <c r="C22" s="45">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="I22" s="31"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="53"/>
       <c r="B23" s="32"/>
       <c r="C23" s="46"/>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="I23" s="38"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="52"/>
       <c r="B24" s="52"/>
       <c r="C24" s="45"/>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="I24" s="25"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="52"/>
       <c r="B25" s="52"/>
       <c r="C25" s="45">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I25" s="31"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="46"/>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="I26" s="58"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="59"/>
       <c r="B27" s="60"/>
       <c r="C27" s="61"/>
@@ -3420,7 +3420,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="65"/>
       <c r="B28" s="66"/>
       <c r="C28" s="67"/>
@@ -3433,7 +3433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
       <c r="C29" s="40"/>
@@ -3451,7 +3451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
       <c r="B30" s="19"/>
       <c r="C30" s="45">
@@ -3475,7 +3475,7 @@
       </c>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="32"/>
       <c r="B31" s="32"/>
       <c r="C31" s="46"/>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="I31" s="78"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="69"/>
       <c r="B32" s="39"/>
       <c r="C32" s="82"/>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="I32" s="71"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="73" t="s">
         <v>12</v>
       </c>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I33" s="77"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="53"/>
       <c r="B34" s="32"/>
       <c r="C34" s="74"/>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="I34" s="78"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="69"/>
       <c r="B35" s="39"/>
       <c r="C35" s="40"/>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="I35" s="71"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="73" t="s">
         <v>12</v>
       </c>
@@ -3589,7 +3589,7 @@
       </c>
       <c r="I36" s="342"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="26"/>
       <c r="B37" s="52"/>
       <c r="C37" s="45"/>
@@ -3605,7 +3605,7 @@
       </c>
       <c r="I37" s="78"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="94"/>
       <c r="B38" s="81"/>
       <c r="C38" s="95"/>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="I38" s="121"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="73" t="s">
         <v>12</v>
       </c>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="I39" s="125"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="98"/>
       <c r="B40" s="90"/>
       <c r="C40" s="99"/>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="I40" s="129"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="80"/>
       <c r="B41" s="81"/>
       <c r="C41" s="82"/>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="I41" s="25"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="85" t="s">
         <v>12</v>
       </c>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="I42" s="342"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="89"/>
       <c r="B43" s="90"/>
       <c r="C43" s="91"/>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="I43" s="78"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="94"/>
       <c r="B44" s="81"/>
       <c r="C44" s="95"/>
@@ -3737,7 +3737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="96" t="s">
         <v>12</v>
       </c>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="I45" s="395"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="98"/>
       <c r="B46" s="90"/>
       <c r="C46" s="99"/>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="I46" s="78"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="103"/>
       <c r="B47" s="104"/>
       <c r="C47" s="103" t="s">
@@ -3795,7 +3795,7 @@
       <c r="H47" s="107"/>
       <c r="I47" s="108"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="103"/>
       <c r="B48" s="104"/>
       <c r="C48" s="103" t="s">
@@ -3811,7 +3811,7 @@
       <c r="H48" s="107"/>
       <c r="I48" s="108"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="145"/>
       <c r="B49" s="146"/>
       <c r="C49" s="145"/>
@@ -3827,7 +3827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="151"/>
       <c r="B50" s="151" t="e">
         <f>#REF!/(#REF!+#REF!)*100</f>
@@ -3848,7 +3848,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="151"/>
       <c r="B51" s="151"/>
       <c r="C51" s="151"/>
@@ -3864,7 +3864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="151"/>
       <c r="B52" s="151"/>
       <c r="C52" s="151"/>
@@ -3880,7 +3880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="145"/>
       <c r="B53" s="146"/>
       <c r="C53" s="145"/>
@@ -3896,7 +3896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="145"/>
       <c r="B54" s="146"/>
       <c r="C54" s="145"/>
@@ -3909,10 +3909,10 @@
       <c r="H54" s="146"/>
       <c r="I54" s="155">
         <f t="shared" ref="I54" si="4">SUM(I61,I97,I157,I300)</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="145"/>
       <c r="B55" s="146"/>
       <c r="C55" s="145"/>
@@ -3925,10 +3925,10 @@
       <c r="H55" s="155"/>
       <c r="I55" s="155">
         <f t="shared" ref="I55" si="5">SUM(I65:I94,I101:I154,I161:I298,I303:I338)</f>
-        <v>310.64999999999998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>321.64999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="145"/>
       <c r="B56" s="146"/>
       <c r="C56" s="145" t="e">
@@ -3944,10 +3944,10 @@
       <c r="H56" s="146"/>
       <c r="I56" s="155">
         <f t="shared" ref="I56" si="6">SUM(I62,I98,I158,I299)</f>
-        <v>31.888636363636365</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32.888636363636365</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="145"/>
       <c r="B57" s="146"/>
       <c r="C57" s="145"/>
@@ -3960,10 +3960,10 @@
       <c r="H57" s="146"/>
       <c r="I57" s="155">
         <f t="shared" ref="I57" si="7">I56-I62-I98</f>
-        <v>18.513636363636365</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19.513636363636365</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="156"/>
       <c r="B58" s="157"/>
       <c r="C58" s="156"/>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="156"/>
       <c r="B59" s="157"/>
       <c r="C59" s="156"/>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="159"/>
       <c r="B60" s="160"/>
       <c r="C60" s="159"/>
@@ -4011,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="159"/>
       <c r="B61" s="160"/>
       <c r="C61" s="159"/>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="159"/>
       <c r="B62" s="160"/>
       <c r="C62" s="159"/>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="164"/>
       <c r="B63" s="165"/>
       <c r="C63" s="164"/>
@@ -4058,7 +4058,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="164"/>
       <c r="B64" s="165"/>
       <c r="C64" s="164"/>
@@ -4071,7 +4071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="179"/>
       <c r="B65" s="178"/>
       <c r="C65" s="364"/>
@@ -4089,7 +4089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="179" t="s">
         <v>109</v>
       </c>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="I66" s="126"/>
     </row>
-    <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="180"/>
       <c r="B67" s="181"/>
       <c r="C67" s="368"/>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="I67" s="144"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="130"/>
       <c r="B68" s="81"/>
       <c r="C68" s="370"/>
@@ -4151,7 +4151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="174" t="s">
         <v>12</v>
       </c>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I69" s="126"/>
     </row>
-    <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="132"/>
       <c r="B70" s="133"/>
       <c r="C70" s="372"/>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="I70" s="144"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="172"/>
       <c r="B71" s="117"/>
       <c r="C71" s="167"/>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="I71" s="168"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="179" t="s">
         <v>12</v>
       </c>
@@ -4239,7 +4239,7 @@
       </c>
       <c r="I72" s="170"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="274"/>
       <c r="B73" s="90"/>
       <c r="C73" s="171"/>
@@ -4255,7 +4255,7 @@
       </c>
       <c r="I73" s="144"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="177"/>
       <c r="B74" s="247"/>
       <c r="C74" s="183"/>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="I74" s="168"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="179" t="s">
         <v>12</v>
       </c>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="I75" s="170"/>
     </row>
-    <row r="76" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="180"/>
       <c r="B76" s="181"/>
       <c r="C76" s="176"/>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="I76" s="144"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="276"/>
       <c r="B77" s="277"/>
       <c r="C77" s="344"/>
@@ -4333,7 +4333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="281" t="s">
         <v>115</v>
       </c>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="I78" s="126"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="283"/>
       <c r="B79" s="196"/>
       <c r="C79" s="197"/>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="I79" s="144"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="130"/>
       <c r="B80" s="81"/>
       <c r="C80" s="183"/>
@@ -4395,7 +4395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="174" t="s">
         <v>106</v>
       </c>
@@ -4423,7 +4423,7 @@
       </c>
       <c r="I81" s="126"/>
     </row>
-    <row r="82" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="132"/>
       <c r="B82" s="133"/>
       <c r="C82" s="176"/>
@@ -4439,7 +4439,7 @@
       </c>
       <c r="I82" s="144"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="276"/>
       <c r="B83" s="277"/>
       <c r="C83" s="344"/>
@@ -4455,7 +4455,7 @@
       </c>
       <c r="I83" s="121"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="281" t="s">
         <v>108</v>
       </c>
@@ -4483,7 +4483,7 @@
       </c>
       <c r="I84" s="170"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="283"/>
       <c r="B85" s="196"/>
       <c r="C85" s="197"/>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="I85" s="144"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="345"/>
       <c r="B86" s="201"/>
       <c r="C86" s="202"/>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="I86" s="121"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="281" t="s">
         <v>108</v>
       </c>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="I87" s="125"/>
     </row>
-    <row r="88" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="281"/>
       <c r="B88" s="188"/>
       <c r="C88" s="373"/>
@@ -4559,7 +4559,7 @@
       </c>
       <c r="I88" s="144"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="203"/>
       <c r="B89" s="204"/>
       <c r="C89" s="205"/>
@@ -4575,7 +4575,7 @@
       </c>
       <c r="I89" s="168"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="179" t="s">
         <v>109</v>
       </c>
@@ -4603,7 +4603,7 @@
       </c>
       <c r="I90" s="170"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="209"/>
       <c r="B91" s="210"/>
       <c r="C91" s="186"/>
@@ -4619,7 +4619,7 @@
       </c>
       <c r="I91" s="144"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="179"/>
       <c r="B92" s="178"/>
       <c r="C92" s="182"/>
@@ -4637,7 +4637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="179" t="s">
         <v>109</v>
       </c>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="I93" s="178"/>
     </row>
-    <row r="94" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="180"/>
       <c r="B94" s="181"/>
       <c r="C94" s="272"/>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I94" s="144"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="212"/>
       <c r="B95" s="213"/>
       <c r="C95" s="212" t="s">
@@ -4697,7 +4697,7 @@
       <c r="H95" s="217"/>
       <c r="I95" s="217"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="218"/>
       <c r="B96" s="219"/>
       <c r="C96" s="218"/>
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="218"/>
       <c r="B97" s="219"/>
       <c r="C97" s="218"/>
@@ -4729,7 +4729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="218"/>
       <c r="B98" s="219"/>
       <c r="C98" s="218"/>
@@ -4745,7 +4745,7 @@
         <v>13.375</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="164"/>
       <c r="B99" s="165"/>
       <c r="C99" s="164"/>
@@ -4760,7 +4760,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="164"/>
       <c r="B100" s="165"/>
       <c r="C100" s="164"/>
@@ -4773,7 +4773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="221"/>
       <c r="B101" s="222"/>
       <c r="C101" s="223"/>
@@ -4791,7 +4791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="227" t="s">
         <v>109</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="228"/>
       <c r="B103" s="229"/>
       <c r="C103" s="230"/>
@@ -4837,7 +4837,7 @@
       </c>
       <c r="I103" s="38"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="238"/>
       <c r="B104" s="112"/>
       <c r="C104" s="74"/>
@@ -4855,7 +4855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="227" t="s">
         <v>109</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="239"/>
       <c r="B106" s="90"/>
       <c r="C106" s="240"/>
@@ -4901,7 +4901,7 @@
       </c>
       <c r="I106" s="38"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="85"/>
       <c r="B107" s="81"/>
       <c r="C107" s="82"/>
@@ -4919,7 +4919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="227" t="s">
         <v>113</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="89"/>
       <c r="B109" s="90"/>
       <c r="C109" s="91"/>
@@ -4965,7 +4965,7 @@
       </c>
       <c r="I109" s="38"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="187"/>
       <c r="B110" s="192"/>
       <c r="C110" s="191"/>
@@ -4983,7 +4983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="187" t="s">
         <v>108</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="195"/>
       <c r="B112" s="196"/>
       <c r="C112" s="236"/>
@@ -5029,7 +5029,7 @@
       </c>
       <c r="I112" s="38"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="80"/>
       <c r="B113" s="81"/>
       <c r="C113" s="82"/>
@@ -5047,7 +5047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="227" t="s">
         <v>109</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="89"/>
       <c r="B115" s="90"/>
       <c r="C115" s="91"/>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="I115" s="38"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="85"/>
       <c r="B116" s="112"/>
       <c r="C116" s="74"/>
@@ -5111,7 +5111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="227" t="s">
         <v>109</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="89"/>
       <c r="B118" s="90"/>
       <c r="C118" s="91"/>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="I118" s="38"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="238"/>
       <c r="B119" s="81"/>
       <c r="C119" s="82"/>
@@ -5175,7 +5175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="227" t="s">
         <v>113</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="239"/>
       <c r="B121" s="90"/>
       <c r="C121" s="91"/>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="I121" s="38"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="187"/>
       <c r="B122" s="192"/>
       <c r="C122" s="191"/>
@@ -5239,7 +5239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="187" t="s">
         <v>115</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="195"/>
       <c r="B124" s="196"/>
       <c r="C124" s="236"/>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="I124" s="38"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="80"/>
       <c r="B125" s="81"/>
       <c r="C125" s="82"/>
@@ -5303,7 +5303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="227" t="s">
         <v>113</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="85"/>
       <c r="B127" s="86"/>
       <c r="C127" s="74"/>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="I127" s="38"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="246"/>
       <c r="B128" s="84"/>
       <c r="C128" s="95"/>
@@ -5367,7 +5367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="227" t="s">
         <v>109</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="248"/>
       <c r="B130" s="93"/>
       <c r="C130" s="99"/>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="I130" s="38"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="80"/>
       <c r="B131" s="81"/>
       <c r="C131" s="82"/>
@@ -5431,7 +5431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="227" t="s">
         <v>109</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="89"/>
       <c r="B133" s="90"/>
       <c r="C133" s="91"/>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="I133" s="38"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="94"/>
       <c r="B134" s="81"/>
       <c r="C134" s="95"/>
@@ -5495,7 +5495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="227" t="s">
         <v>109</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="98"/>
       <c r="B136" s="90"/>
       <c r="C136" s="99"/>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="I136" s="38"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="94"/>
       <c r="B137" s="81"/>
       <c r="C137" s="251"/>
@@ -5559,7 +5559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="96" t="s">
         <v>109</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="96"/>
       <c r="B139" s="86"/>
       <c r="C139" s="97"/>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="I139" s="38"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="94"/>
       <c r="B140" s="81"/>
       <c r="C140" s="95"/>
@@ -5623,7 +5623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="96" t="s">
         <v>109</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="98"/>
       <c r="B142" s="90"/>
       <c r="C142" s="99"/>
@@ -5669,7 +5669,7 @@
       </c>
       <c r="I142" s="38"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="246"/>
       <c r="B143" s="84"/>
       <c r="C143" s="95"/>
@@ -5687,7 +5687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="207" t="s">
         <v>109</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="248"/>
       <c r="B145" s="93"/>
       <c r="C145" s="99"/>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="I145" s="38"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="200"/>
       <c r="B146" s="201"/>
       <c r="C146" s="252"/>
@@ -5751,7 +5751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="187" t="s">
         <v>115</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="195"/>
       <c r="B148" s="196"/>
       <c r="C148" s="236"/>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="I148" s="38"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="80"/>
       <c r="B149" s="81"/>
       <c r="C149" s="82"/>
@@ -5815,7 +5815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="85" t="s">
         <v>109</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="89"/>
       <c r="B151" s="90"/>
       <c r="C151" s="91"/>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="I151" s="38"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="94"/>
       <c r="B152" s="81"/>
       <c r="C152" s="95"/>
@@ -5879,7 +5879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="96" t="s">
         <v>109</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="98"/>
       <c r="B154" s="90"/>
       <c r="C154" s="99"/>
@@ -5923,7 +5923,7 @@
       </c>
       <c r="I154" s="38"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="264"/>
       <c r="B155" s="265"/>
       <c r="C155" s="264" t="s">
@@ -5939,7 +5939,7 @@
       <c r="H155" s="266"/>
       <c r="I155" s="266"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="218"/>
       <c r="B156" s="219"/>
       <c r="C156" s="218"/>
@@ -5955,7 +5955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="218"/>
       <c r="B157" s="219"/>
       <c r="C157" s="218"/>
@@ -5968,10 +5968,10 @@
       <c r="H157" s="160"/>
       <c r="I157" s="160">
         <f t="shared" ref="I157" si="16">COUNTIF(I161:I298,"&gt;0")</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="218"/>
       <c r="B158" s="219"/>
       <c r="C158" s="218"/>
@@ -5984,10 +5984,10 @@
       <c r="H158" s="160"/>
       <c r="I158" s="163">
         <f t="shared" ref="I158" si="17">SUM(I162,I165,I168,I216,I177,I180,I240,I246,I183,I186,I189,I192,I195,I198,I201,I204,I210,I213,I219,I222,I225,I228,I231,I234,I237,I243,I249,I252,I255,I258,I261,I264,I171,I267,I270,I273,I276,I279,I282,I285,I288,I291,I294,I297,I174,I207)/11</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="164"/>
       <c r="B159" s="165"/>
       <c r="C159" s="164"/>
@@ -6002,7 +6002,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="164"/>
       <c r="B160" s="165"/>
       <c r="C160" s="164"/>
@@ -6015,7 +6015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="116"/>
       <c r="B161" s="117"/>
       <c r="C161" s="118"/>
@@ -6033,7 +6033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="169" t="s">
         <v>109</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="127"/>
       <c r="B163" s="90"/>
       <c r="C163" s="99"/>
@@ -6079,7 +6079,7 @@
       </c>
       <c r="I163" s="129"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="271"/>
       <c r="B164" s="81"/>
       <c r="C164" s="95"/>
@@ -6095,7 +6095,7 @@
       </c>
       <c r="I164" s="121"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="169" t="s">
         <v>109</v>
       </c>
@@ -6123,7 +6123,7 @@
       </c>
       <c r="I165" s="125"/>
     </row>
-    <row r="166" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="169"/>
       <c r="B166" s="86"/>
       <c r="C166" s="182"/>
@@ -6139,7 +6139,7 @@
       </c>
       <c r="I166" s="129"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="172"/>
       <c r="B167" s="117"/>
       <c r="C167" s="273"/>
@@ -6157,7 +6157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="169" t="s">
         <v>109</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="274"/>
       <c r="B169" s="90"/>
       <c r="C169" s="91"/>
@@ -6203,7 +6203,7 @@
       </c>
       <c r="I169" s="129"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="130"/>
       <c r="B170" s="81"/>
       <c r="C170" s="82"/>
@@ -6219,7 +6219,7 @@
       </c>
       <c r="I170" s="353"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="169" t="s">
         <v>109</v>
       </c>
@@ -6247,7 +6247,7 @@
       </c>
       <c r="I171" s="353"/>
     </row>
-    <row r="172" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="132"/>
       <c r="B172" s="133"/>
       <c r="C172" s="134"/>
@@ -6263,7 +6263,7 @@
       </c>
       <c r="I172" s="353"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="169"/>
       <c r="B173" s="86"/>
       <c r="C173" s="182"/>
@@ -6279,7 +6279,7 @@
       </c>
       <c r="I173" s="121"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="169" t="s">
         <v>109</v>
       </c>
@@ -6307,7 +6307,7 @@
       </c>
       <c r="I174" s="125"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="127"/>
       <c r="B175" s="90"/>
       <c r="C175" s="99"/>
@@ -6323,7 +6323,7 @@
       </c>
       <c r="I175" s="129"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="174"/>
       <c r="B176" s="86"/>
       <c r="C176" s="74"/>
@@ -6341,7 +6341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="169" t="s">
         <v>109</v>
       </c>
@@ -6367,7 +6367,7 @@
       </c>
       <c r="I177" s="125"/>
     </row>
-    <row r="178" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="132"/>
       <c r="B178" s="133"/>
       <c r="C178" s="134"/>
@@ -6383,7 +6383,7 @@
       </c>
       <c r="I178" s="129"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="276"/>
       <c r="B179" s="277"/>
       <c r="C179" s="278"/>
@@ -6399,7 +6399,7 @@
       </c>
       <c r="I179" s="121"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="281" t="s">
         <v>108</v>
       </c>
@@ -6427,7 +6427,7 @@
       </c>
       <c r="I180" s="125"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="283"/>
       <c r="B181" s="196"/>
       <c r="C181" s="236"/>
@@ -6443,7 +6443,7 @@
       </c>
       <c r="I181" s="129"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="281"/>
       <c r="B182" s="188"/>
       <c r="C182" s="191"/>
@@ -6461,7 +6461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="281" t="s">
         <v>108</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="285"/>
       <c r="B184" s="286"/>
       <c r="C184" s="287"/>
@@ -6507,7 +6507,7 @@
       </c>
       <c r="I184" s="129"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="174"/>
       <c r="B185" s="86"/>
       <c r="C185" s="74"/>
@@ -6525,7 +6525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="169" t="s">
         <v>109</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="274"/>
       <c r="B187" s="90"/>
       <c r="C187" s="91"/>
@@ -6571,7 +6571,7 @@
       </c>
       <c r="I187" s="129"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="169"/>
       <c r="B188" s="86"/>
       <c r="C188" s="178"/>
@@ -6587,7 +6587,7 @@
       </c>
       <c r="I188" s="121"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="169" t="s">
         <v>109</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="169"/>
       <c r="B190" s="86"/>
       <c r="C190" s="178"/>
@@ -6633,7 +6633,7 @@
       </c>
       <c r="I190" s="129"/>
     </row>
-    <row r="191" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="348"/>
       <c r="B191" s="117"/>
       <c r="C191" s="349"/>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I191" s="121"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="169" t="s">
         <v>109</v>
       </c>
@@ -6677,7 +6677,7 @@
       </c>
       <c r="I192" s="125"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="352"/>
       <c r="B193" s="90"/>
       <c r="C193" s="300"/>
@@ -6693,7 +6693,7 @@
       </c>
       <c r="I193" s="129"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="130"/>
       <c r="B194" s="81"/>
       <c r="C194" s="291"/>
@@ -6711,7 +6711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="169" t="s">
         <v>109</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="132"/>
       <c r="B196" s="133"/>
       <c r="C196" s="293"/>
@@ -6757,7 +6757,7 @@
       </c>
       <c r="I196" s="129"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="281"/>
       <c r="B197" s="192"/>
       <c r="C197" s="191"/>
@@ -6773,7 +6773,7 @@
       </c>
       <c r="I197" s="121"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="281" t="s">
         <v>108</v>
       </c>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="I198" s="125"/>
     </row>
-    <row r="199" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="285"/>
       <c r="B199" s="286"/>
       <c r="C199" s="287"/>
@@ -6817,7 +6817,7 @@
       </c>
       <c r="I199" s="129"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="116"/>
       <c r="B200" s="117"/>
       <c r="C200" s="118"/>
@@ -6833,7 +6833,7 @@
       </c>
       <c r="I200" s="121"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="169" t="s">
         <v>109</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="127"/>
       <c r="B202" s="90"/>
       <c r="C202" s="99"/>
@@ -6879,7 +6879,7 @@
       </c>
       <c r="I202" s="129"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="271"/>
       <c r="B203" s="81"/>
       <c r="C203" s="95"/>
@@ -6897,7 +6897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="169" t="s">
         <v>109</v>
       </c>
@@ -6923,7 +6923,7 @@
       </c>
       <c r="I204" s="125"/>
     </row>
-    <row r="205" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="175"/>
       <c r="B205" s="133"/>
       <c r="C205" s="272"/>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="I205" s="129"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="187"/>
       <c r="B206" s="192"/>
       <c r="C206" s="191"/>
@@ -6957,7 +6957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="187" t="s">
         <v>108</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="195"/>
       <c r="B208" s="196"/>
       <c r="C208" s="236"/>
@@ -7003,7 +7003,7 @@
       </c>
       <c r="I208" s="129"/>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="172"/>
       <c r="B209" s="117"/>
       <c r="C209" s="273"/>
@@ -7021,7 +7021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="169" t="s">
         <v>109</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="274"/>
       <c r="B211" s="90"/>
       <c r="C211" s="91"/>
@@ -7067,7 +7067,7 @@
       </c>
       <c r="I211" s="129"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="281"/>
       <c r="B212" s="188"/>
       <c r="C212" s="295"/>
@@ -7083,7 +7083,7 @@
       </c>
       <c r="I212" s="121"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="281" t="s">
         <v>130</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="285"/>
       <c r="B214" s="286"/>
       <c r="C214" s="297"/>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I214" s="353"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="116"/>
       <c r="B215" s="117"/>
       <c r="C215" s="167"/>
@@ -7147,7 +7147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="169" t="s">
         <v>12</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="127"/>
       <c r="B217" s="90"/>
       <c r="C217" s="171"/>
@@ -7193,7 +7193,7 @@
       </c>
       <c r="I217" s="129"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="174"/>
       <c r="B218" s="86"/>
       <c r="C218" s="173"/>
@@ -7209,7 +7209,7 @@
       </c>
       <c r="I218" s="354"/>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="169" t="s">
         <v>109</v>
       </c>
@@ -7237,7 +7237,7 @@
       </c>
       <c r="I219" s="125"/>
     </row>
-    <row r="220" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="132"/>
       <c r="B220" s="133"/>
       <c r="C220" s="176"/>
@@ -7253,7 +7253,7 @@
       </c>
       <c r="I220" s="129"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="172"/>
       <c r="B221" s="117"/>
       <c r="C221" s="273"/>
@@ -7269,7 +7269,7 @@
       </c>
       <c r="I221" s="121"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="169" t="s">
         <v>109</v>
       </c>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="I222" s="125"/>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="274"/>
       <c r="B223" s="90"/>
       <c r="C223" s="91"/>
@@ -7313,7 +7313,7 @@
       </c>
       <c r="I223" s="129"/>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="271"/>
       <c r="B224" s="81"/>
       <c r="C224" s="251"/>
@@ -7331,7 +7331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="169" t="s">
         <v>109</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="175"/>
       <c r="B226" s="133"/>
       <c r="C226" s="299"/>
@@ -7377,7 +7377,7 @@
       </c>
       <c r="I226" s="129"/>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="276"/>
       <c r="B227" s="277"/>
       <c r="C227" s="278"/>
@@ -7395,7 +7395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="281" t="s">
         <v>115</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="283"/>
       <c r="B229" s="196"/>
       <c r="C229" s="236"/>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="I229" s="129"/>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="384"/>
       <c r="B230" s="385"/>
       <c r="C230" s="386"/>
@@ -7457,7 +7457,7 @@
       </c>
       <c r="I230" s="121"/>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="306"/>
       <c r="B231" s="307"/>
       <c r="C231" s="317"/>
@@ -7477,7 +7477,7 @@
       </c>
       <c r="I231" s="125"/>
     </row>
-    <row r="232" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="311"/>
       <c r="B232" s="312"/>
       <c r="C232" s="313"/>
@@ -7493,7 +7493,7 @@
       </c>
       <c r="I232" s="129"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="172"/>
       <c r="B233" s="117"/>
       <c r="C233" s="205"/>
@@ -7511,7 +7511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="169" t="s">
         <v>109</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="274"/>
       <c r="B235" s="90"/>
       <c r="C235" s="186"/>
@@ -7557,7 +7557,7 @@
       </c>
       <c r="I235" s="129"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="174"/>
       <c r="B236" s="112"/>
       <c r="C236" s="74"/>
@@ -7573,7 +7573,7 @@
       </c>
       <c r="I236" s="121"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="169" t="s">
         <v>109</v>
       </c>
@@ -7601,7 +7601,7 @@
       </c>
       <c r="I237" s="125"/>
     </row>
-    <row r="238" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="174"/>
       <c r="B238" s="86"/>
       <c r="C238" s="74"/>
@@ -7617,7 +7617,7 @@
       </c>
       <c r="I238" s="129"/>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="301"/>
       <c r="B239" s="302"/>
       <c r="C239" s="327"/>
@@ -7635,7 +7635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="306"/>
       <c r="B240" s="307"/>
       <c r="C240" s="321"/>
@@ -7655,7 +7655,7 @@
       </c>
       <c r="I240" s="125"/>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="355"/>
       <c r="B241" s="312"/>
       <c r="C241" s="356"/>
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I241" s="129"/>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="174"/>
       <c r="B242" s="86"/>
       <c r="C242" s="74"/>
@@ -7687,7 +7687,7 @@
       </c>
       <c r="I242" s="121"/>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="169" t="s">
         <v>109</v>
       </c>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="I243" s="125"/>
     </row>
-    <row r="244" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="174"/>
       <c r="B244" s="86"/>
       <c r="C244" s="74"/>
@@ -7731,7 +7731,7 @@
       </c>
       <c r="I244" s="129"/>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="172"/>
       <c r="B245" s="117"/>
       <c r="C245" s="273"/>
@@ -7749,7 +7749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="169" t="s">
         <v>109</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="174"/>
       <c r="B247" s="86"/>
       <c r="C247" s="74"/>
@@ -7795,7 +7795,7 @@
       </c>
       <c r="I247" s="353"/>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="271"/>
       <c r="B248" s="81"/>
       <c r="C248" s="95"/>
@@ -7811,7 +7811,7 @@
       </c>
       <c r="I248" s="121"/>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="169" t="s">
         <v>109</v>
       </c>
@@ -7837,7 +7837,7 @@
       </c>
       <c r="I249" s="125"/>
     </row>
-    <row r="250" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="175"/>
       <c r="B250" s="133"/>
       <c r="C250" s="272"/>
@@ -7853,7 +7853,7 @@
       </c>
       <c r="I250" s="129"/>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="174"/>
       <c r="B251" s="86"/>
       <c r="C251" s="74"/>
@@ -7871,7 +7871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="169" t="s">
         <v>113</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="274"/>
       <c r="B253" s="90"/>
       <c r="C253" s="91"/>
@@ -7917,7 +7917,7 @@
       </c>
       <c r="I253" s="129"/>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="345"/>
       <c r="B254" s="201"/>
       <c r="C254" s="252"/>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="I254" s="121"/>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="281" t="s">
         <v>115</v>
       </c>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="I255" s="125"/>
     </row>
-    <row r="256" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" s="285"/>
       <c r="B256" s="286"/>
       <c r="C256" s="287"/>
@@ -7977,7 +7977,7 @@
       </c>
       <c r="I256" s="129"/>
     </row>
-    <row r="257" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="357"/>
       <c r="B257" s="358"/>
       <c r="C257" s="308"/>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I257" s="121"/>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" s="306"/>
       <c r="B258" s="358"/>
       <c r="C258" s="308"/>
@@ -8013,7 +8013,7 @@
       </c>
       <c r="I258" s="125"/>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" s="355"/>
       <c r="B259" s="312"/>
       <c r="C259" s="356"/>
@@ -8029,7 +8029,7 @@
       </c>
       <c r="I259" s="129"/>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" s="169"/>
       <c r="B260" s="86"/>
       <c r="C260" s="97"/>
@@ -8047,7 +8047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" s="169" t="s">
         <v>109</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="175"/>
       <c r="B262" s="133"/>
       <c r="C262" s="299"/>
@@ -8093,7 +8093,7 @@
       </c>
       <c r="I262" s="129"/>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" s="301"/>
       <c r="B263" s="302"/>
       <c r="C263" s="303"/>
@@ -8109,7 +8109,7 @@
       </c>
       <c r="I263" s="121"/>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" s="306"/>
       <c r="B264" s="307"/>
       <c r="C264" s="308"/>
@@ -8129,7 +8129,7 @@
       </c>
       <c r="I264" s="125"/>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" s="311"/>
       <c r="B265" s="312"/>
       <c r="C265" s="313"/>
@@ -8145,7 +8145,7 @@
       </c>
       <c r="I265" s="129"/>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" s="271"/>
       <c r="B266" s="81"/>
       <c r="C266" s="251"/>
@@ -8163,7 +8163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" s="169" t="s">
         <v>109</v>
       </c>
@@ -8191,7 +8191,7 @@
       </c>
       <c r="I267" s="374"/>
     </row>
-    <row r="268" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="127"/>
       <c r="B268" s="90"/>
       <c r="C268" s="171"/>
@@ -8207,7 +8207,7 @@
       </c>
       <c r="I268" s="353"/>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" s="116"/>
       <c r="B269" s="117"/>
       <c r="C269" s="118"/>
@@ -8225,7 +8225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" s="169" t="s">
         <v>109</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="127"/>
       <c r="B271" s="90"/>
       <c r="C271" s="99"/>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="I271" s="129"/>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" s="169"/>
       <c r="B272" s="86"/>
       <c r="C272" s="182"/>
@@ -8287,7 +8287,7 @@
       </c>
       <c r="I272" s="121"/>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" s="169" t="s">
         <v>109</v>
       </c>
@@ -8315,7 +8315,7 @@
       </c>
       <c r="I273" s="125"/>
     </row>
-    <row r="274" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A274" s="175"/>
       <c r="B274" s="133"/>
       <c r="C274" s="272"/>
@@ -8331,7 +8331,7 @@
       </c>
       <c r="I274" s="129"/>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" s="361"/>
       <c r="B275" s="302"/>
       <c r="C275" s="362"/>
@@ -8347,7 +8347,7 @@
       </c>
       <c r="I275" s="121"/>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" s="357"/>
       <c r="B276" s="358"/>
       <c r="C276" s="308"/>
@@ -8367,7 +8367,7 @@
       </c>
       <c r="I276" s="125"/>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" s="355"/>
       <c r="B277" s="312"/>
       <c r="C277" s="356"/>
@@ -8383,7 +8383,7 @@
       </c>
       <c r="I277" s="129"/>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" s="85"/>
       <c r="B278" s="86"/>
       <c r="C278" s="74"/>
@@ -8401,7 +8401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" s="169" t="s">
         <v>109</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A280" s="89"/>
       <c r="B280" s="90"/>
       <c r="C280" s="91"/>
@@ -8447,7 +8447,7 @@
       </c>
       <c r="I280" s="129"/>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" s="172"/>
       <c r="B281" s="117"/>
       <c r="C281" s="273"/>
@@ -8465,7 +8465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" s="169" t="s">
         <v>109</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" s="322"/>
       <c r="B283" s="86"/>
       <c r="C283" s="74"/>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="I283" s="129"/>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" s="323"/>
       <c r="B284" s="84"/>
       <c r="C284" s="95"/>
@@ -8527,7 +8527,7 @@
       </c>
       <c r="I284" s="121"/>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" s="169" t="s">
         <v>109</v>
       </c>
@@ -8555,7 +8555,7 @@
       </c>
       <c r="I285" s="125"/>
     </row>
-    <row r="286" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A286" s="324"/>
       <c r="B286" s="325"/>
       <c r="C286" s="272"/>
@@ -8571,7 +8571,7 @@
       </c>
       <c r="I286" s="129"/>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" s="116"/>
       <c r="B287" s="117"/>
       <c r="C287" s="167"/>
@@ -8589,7 +8589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" s="169" t="s">
         <v>109</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="127"/>
       <c r="B289" s="90"/>
       <c r="C289" s="171"/>
@@ -8635,7 +8635,7 @@
       </c>
       <c r="I289" s="129"/>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" s="271"/>
       <c r="B290" s="81"/>
       <c r="C290" s="251"/>
@@ -8651,7 +8651,7 @@
       </c>
       <c r="I290" s="121"/>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" s="169" t="s">
         <v>109</v>
       </c>
@@ -8675,11 +8675,13 @@
       </c>
       <c r="H291" s="30">
         <f>COUNTIF(I291:I291,"&gt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="I291" s="125"/>
-    </row>
-    <row r="292" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I291" s="125">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A292" s="169"/>
       <c r="B292" s="86"/>
       <c r="C292" s="97"/>
@@ -8695,7 +8697,7 @@
       </c>
       <c r="I292" s="129"/>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" s="116"/>
       <c r="B293" s="117"/>
       <c r="C293" s="167"/>
@@ -8713,7 +8715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" s="169" t="s">
         <v>109</v>
       </c>
@@ -8743,7 +8745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="127"/>
       <c r="B295" s="90"/>
       <c r="C295" s="171"/>
@@ -8759,7 +8761,7 @@
       </c>
       <c r="I295" s="129"/>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" s="330"/>
       <c r="B296" s="84"/>
       <c r="C296" s="95"/>
@@ -8775,7 +8777,7 @@
       </c>
       <c r="I296" s="121"/>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" s="169" t="s">
         <v>109</v>
       </c>
@@ -8803,7 +8805,7 @@
       </c>
       <c r="I297" s="125"/>
     </row>
-    <row r="298" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A298" s="331"/>
       <c r="B298" s="325"/>
       <c r="C298" s="272"/>
@@ -8819,7 +8821,7 @@
       </c>
       <c r="I298" s="129"/>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" s="332"/>
       <c r="B299" s="160"/>
       <c r="C299" s="333" t="s">
@@ -8840,7 +8842,7 @@
         <v>3.5136363636363637</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A300" s="332"/>
       <c r="B300" s="160"/>
       <c r="C300" s="333"/>
@@ -8856,7 +8858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" s="338"/>
       <c r="B301" s="339"/>
       <c r="C301" s="338"/>
@@ -8871,7 +8873,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" s="164"/>
       <c r="B302" s="165"/>
       <c r="C302" s="164"/>
@@ -8884,7 +8886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" s="200"/>
       <c r="B303" s="201"/>
       <c r="C303" s="252"/>
@@ -8902,7 +8904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" s="187" t="s">
         <v>108</v>
       </c>
@@ -8932,7 +8934,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305" s="195"/>
       <c r="B305" s="196"/>
       <c r="C305" s="236"/>
@@ -8948,7 +8950,7 @@
       </c>
       <c r="I305" s="129"/>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A306" s="200"/>
       <c r="B306" s="201"/>
       <c r="C306" s="252"/>
@@ -8966,7 +8968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A307" s="187" t="s">
         <v>108</v>
       </c>
@@ -8996,7 +8998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A308" s="195"/>
       <c r="B308" s="196"/>
       <c r="C308" s="236"/>
@@ -9012,7 +9014,7 @@
       </c>
       <c r="I308" s="129"/>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A309" s="85"/>
       <c r="B309" s="86"/>
       <c r="C309" s="74"/>
@@ -9030,7 +9032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A310" s="85" t="s">
         <v>109</v>
       </c>
@@ -9060,7 +9062,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A311" s="89"/>
       <c r="B311" s="90"/>
       <c r="C311" s="91"/>
@@ -9076,7 +9078,7 @@
       </c>
       <c r="I311" s="129"/>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A312" s="85"/>
       <c r="B312" s="86"/>
       <c r="C312" s="74"/>
@@ -9094,7 +9096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A313" s="85" t="s">
         <v>109</v>
       </c>
@@ -9124,7 +9126,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A314" s="89"/>
       <c r="B314" s="90"/>
       <c r="C314" s="91"/>
@@ -9140,7 +9142,7 @@
       </c>
       <c r="I314" s="129"/>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A315" s="80"/>
       <c r="B315" s="81"/>
       <c r="C315" s="82"/>
@@ -9158,7 +9160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A316" s="85" t="s">
         <v>109</v>
       </c>
@@ -9188,7 +9190,7 @@
         <v>5.35</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A317" s="89"/>
       <c r="B317" s="90"/>
       <c r="C317" s="91"/>
@@ -9204,7 +9206,7 @@
       </c>
       <c r="I317" s="129"/>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A318" s="94"/>
       <c r="B318" s="81"/>
       <c r="C318" s="95"/>
@@ -9222,7 +9224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A319" s="85" t="s">
         <v>109</v>
       </c>
@@ -9252,7 +9254,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A320" s="98"/>
       <c r="B320" s="90"/>
       <c r="C320" s="99"/>
@@ -9269,7 +9271,7 @@
       <c r="I320" s="129"/>
       <c r="L320" s="397"/>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" s="94"/>
       <c r="B321" s="81"/>
       <c r="C321" s="95"/>
@@ -9285,7 +9287,7 @@
       </c>
       <c r="I321" s="121"/>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" s="96" t="s">
         <v>109</v>
       </c>
@@ -9313,7 +9315,7 @@
       </c>
       <c r="I322" s="125"/>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" s="98"/>
       <c r="B323" s="90"/>
       <c r="C323" s="99"/>
@@ -9329,7 +9331,7 @@
       </c>
       <c r="I323" s="129"/>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" s="85"/>
       <c r="B324" s="86"/>
       <c r="C324" s="74"/>
@@ -9347,7 +9349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" s="85" t="s">
         <v>109</v>
       </c>
@@ -9377,7 +9379,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" s="89"/>
       <c r="B326" s="90"/>
       <c r="C326" s="91"/>
@@ -9393,7 +9395,7 @@
       </c>
       <c r="I326" s="129"/>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327" s="85"/>
       <c r="B327" s="86"/>
       <c r="C327" s="74"/>
@@ -9411,7 +9413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" s="85" t="s">
         <v>113</v>
       </c>
@@ -9441,7 +9443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" s="89"/>
       <c r="B329" s="90"/>
       <c r="C329" s="91"/>
@@ -9457,7 +9459,7 @@
       </c>
       <c r="I329" s="129"/>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" s="85"/>
       <c r="B330" s="112"/>
       <c r="C330" s="74"/>
@@ -9473,7 +9475,7 @@
       </c>
       <c r="I330" s="121"/>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" s="85" t="s">
         <v>109</v>
       </c>
@@ -9503,7 +9505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" s="89"/>
       <c r="B332" s="90"/>
       <c r="C332" s="91"/>
@@ -9519,7 +9521,7 @@
       </c>
       <c r="I332" s="129"/>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" s="200"/>
       <c r="B333" s="201"/>
       <c r="C333" s="252"/>
@@ -9535,7 +9537,7 @@
       </c>
       <c r="I333" s="121"/>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" s="187" t="s">
         <v>108</v>
       </c>
@@ -9563,7 +9565,7 @@
       </c>
       <c r="I334" s="125"/>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" s="195"/>
       <c r="B335" s="196"/>
       <c r="C335" s="236"/>
@@ -9579,7 +9581,7 @@
       </c>
       <c r="I335" s="129"/>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" s="200"/>
       <c r="B336" s="201"/>
       <c r="C336" s="252"/>
@@ -9595,7 +9597,7 @@
       </c>
       <c r="I336" s="121"/>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" s="187" t="s">
         <v>108</v>
       </c>
@@ -9623,7 +9625,7 @@
       </c>
       <c r="I337" s="125"/>
     </row>
-    <row r="338" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="195"/>
       <c r="B338" s="196"/>
       <c r="C338" s="236"/>
@@ -9639,7 +9641,7 @@
       </c>
       <c r="I338" s="129"/>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" s="375"/>
       <c r="B339" s="375"/>
       <c r="C339" s="376" t="s">
@@ -9655,7 +9657,7 @@
       <c r="H339" s="375"/>
       <c r="I339" s="375"/>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" s="375"/>
       <c r="B340" s="375"/>
       <c r="C340" s="376" t="s">
